--- a/Paper/Figures/Figure_4/Ord_GFP_in_situ_quant_Kahini.xlsx
+++ b/Paper/Figures/Figure_4/Ord_GFP_in_situ_quant_Kahini.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kahinisarkar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Developmental-Landscape\Paper\Figures\Figure_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD575EB-9F18-7341-8805-A44BB7DCCE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06FAC86-483F-4FF9-90CE-8D66EA35C8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{9CACD688-7625-49A0-91D2-819C61287C35}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CACD688-7625-49A0-91D2-819C61287C35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="KS_ord" sheetId="2" r:id="rId2"/>
-    <sheet name="KS_c3g" sheetId="3" r:id="rId3"/>
+    <sheet name="KS_ord" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="13">
   <si>
     <t>n</t>
   </si>
@@ -48,9 +46,6 @@
   </si>
   <si>
     <t>Percent Area</t>
-  </si>
-  <si>
-    <t>Mode</t>
   </si>
   <si>
     <t>Median</t>
@@ -72,9 +67,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Rep</t>
   </si>
   <si>
     <t>Cell</t>
@@ -431,3801 +423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14776424-33F1-41B1-96FD-937DCC14E9F7}">
-  <dimension ref="A1:L99"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>59.24</v>
-      </c>
-      <c r="F2">
-        <v>23.254999999999999</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>6.577</v>
-      </c>
-      <c r="I2">
-        <v>22.053000000000001</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>59.24</v>
-      </c>
-      <c r="F3">
-        <v>35.421999999999997</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>6.577</v>
-      </c>
-      <c r="I3">
-        <v>22.053000000000001</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>13.891</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>50.667000000000002</v>
-      </c>
-      <c r="F4">
-        <v>24.64</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>8.9510000000000005</v>
-      </c>
-      <c r="I4">
-        <v>15.451000000000001</v>
-      </c>
-      <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>50.667000000000002</v>
-      </c>
-      <c r="F5">
-        <v>35.128</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>8.9510000000000005</v>
-      </c>
-      <c r="I5">
-        <v>15.451000000000001</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>13.776</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>56.009</v>
-      </c>
-      <c r="F6">
-        <v>24.972999999999999</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>15.943</v>
-      </c>
-      <c r="I6">
-        <v>11.326000000000001</v>
-      </c>
-      <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>56.009</v>
-      </c>
-      <c r="F7">
-        <v>38.25</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>15.943</v>
-      </c>
-      <c r="I7">
-        <v>11.326000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>114.646</v>
-      </c>
-      <c r="F8">
-        <v>22.2</v>
-      </c>
-      <c r="G8">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>15.037000000000001</v>
-      </c>
-      <c r="I8">
-        <v>23.568000000000001</v>
-      </c>
-      <c r="J8">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>114.646</v>
-      </c>
-      <c r="F9">
-        <v>44.463999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>15.037000000000001</v>
-      </c>
-      <c r="I9">
-        <v>23.568000000000001</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>17.437000000000001</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>52.561999999999998</v>
-      </c>
-      <c r="F10">
-        <v>27.256</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>21.097000000000001</v>
-      </c>
-      <c r="I10">
-        <v>17.02</v>
-      </c>
-      <c r="J10">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>52.561999999999998</v>
-      </c>
-      <c r="F11">
-        <v>22.155999999999999</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>21.097000000000001</v>
-      </c>
-      <c r="I11">
-        <v>17.02</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>8.6890000000000001</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>81.989000000000004</v>
-      </c>
-      <c r="F12">
-        <v>30.231999999999999</v>
-      </c>
-      <c r="G12">
-        <v>28</v>
-      </c>
-      <c r="H12">
-        <v>23.917000000000002</v>
-      </c>
-      <c r="I12">
-        <v>27.225000000000001</v>
-      </c>
-      <c r="J12">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>81.989000000000004</v>
-      </c>
-      <c r="F13">
-        <v>26.532</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>23.917000000000002</v>
-      </c>
-      <c r="I13">
-        <v>27.225000000000001</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>10.404999999999999</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>67.555000000000007</v>
-      </c>
-      <c r="F14">
-        <v>36.136000000000003</v>
-      </c>
-      <c r="G14">
-        <v>31</v>
-      </c>
-      <c r="H14">
-        <v>29.626999999999999</v>
-      </c>
-      <c r="I14">
-        <v>24.702999999999999</v>
-      </c>
-      <c r="J14">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>67.555000000000007</v>
-      </c>
-      <c r="F15">
-        <v>41.633000000000003</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>29.626999999999999</v>
-      </c>
-      <c r="I15">
-        <v>24.702999999999999</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>16.327000000000002</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>103.91800000000001</v>
-      </c>
-      <c r="F16">
-        <v>34.720999999999997</v>
-      </c>
-      <c r="G16">
-        <v>34</v>
-      </c>
-      <c r="H16">
-        <v>35.793999999999997</v>
-      </c>
-      <c r="I16">
-        <v>21.786999999999999</v>
-      </c>
-      <c r="J16">
-        <v>34</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>103.91800000000001</v>
-      </c>
-      <c r="F17">
-        <v>31.716000000000001</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>35.793999999999997</v>
-      </c>
-      <c r="I17">
-        <v>21.786999999999999</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>12.438000000000001</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>134.37799999999999</v>
-      </c>
-      <c r="F18">
-        <v>28.808</v>
-      </c>
-      <c r="G18">
-        <v>24</v>
-      </c>
-      <c r="H18">
-        <v>48.054000000000002</v>
-      </c>
-      <c r="I18">
-        <v>17.527000000000001</v>
-      </c>
-      <c r="J18">
-        <v>28</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>134.37799999999999</v>
-      </c>
-      <c r="F19">
-        <v>35.890999999999998</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>48.054000000000002</v>
-      </c>
-      <c r="I19">
-        <v>17.527000000000001</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>14.074999999999999</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>231.87700000000001</v>
-      </c>
-      <c r="F20">
-        <v>29.681999999999999</v>
-      </c>
-      <c r="G20">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>58.515999999999998</v>
-      </c>
-      <c r="I20">
-        <v>20.327000000000002</v>
-      </c>
-      <c r="J20">
-        <v>29</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>231.87700000000001</v>
-      </c>
-      <c r="F21">
-        <v>24.401</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>58.515999999999998</v>
-      </c>
-      <c r="I21">
-        <v>20.327000000000002</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>9.5690000000000008</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>356.17399999999998</v>
-      </c>
-      <c r="F22">
-        <v>20.844999999999999</v>
-      </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>81.697000000000003</v>
-      </c>
-      <c r="I22">
-        <v>24.632000000000001</v>
-      </c>
-      <c r="J22">
-        <v>20</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>356.17399999999998</v>
-      </c>
-      <c r="F23">
-        <v>18.23</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>81.697000000000003</v>
-      </c>
-      <c r="I23">
-        <v>24.632000000000001</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>7.149</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="F24">
-        <v>22.734999999999999</v>
-      </c>
-      <c r="G24">
-        <v>14</v>
-      </c>
-      <c r="H24">
-        <v>6.165</v>
-      </c>
-      <c r="I24">
-        <v>17.074999999999999</v>
-      </c>
-      <c r="J24">
-        <v>19</v>
-      </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="F25">
-        <v>21.026</v>
-      </c>
-      <c r="G25">
-        <v>18</v>
-      </c>
-      <c r="H25">
-        <v>6.165</v>
-      </c>
-      <c r="I25">
-        <v>17.074999999999999</v>
-      </c>
-      <c r="J25">
-        <v>20</v>
-      </c>
-      <c r="K25">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>48.426000000000002</v>
-      </c>
-      <c r="F26">
-        <v>23.277999999999999</v>
-      </c>
-      <c r="G26">
-        <v>18</v>
-      </c>
-      <c r="H26">
-        <v>10.207000000000001</v>
-      </c>
-      <c r="I26">
-        <v>21.893999999999998</v>
-      </c>
-      <c r="J26">
-        <v>24</v>
-      </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>48.426000000000002</v>
-      </c>
-      <c r="F27">
-        <v>22.093</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <v>10.207000000000001</v>
-      </c>
-      <c r="I27">
-        <v>21.893999999999998</v>
-      </c>
-      <c r="J27">
-        <v>21</v>
-      </c>
-      <c r="K27">
-        <v>25.266999999999999</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>35.932000000000002</v>
-      </c>
-      <c r="F28">
-        <v>24.765000000000001</v>
-      </c>
-      <c r="G28">
-        <v>25</v>
-      </c>
-      <c r="H28">
-        <v>15.465999999999999</v>
-      </c>
-      <c r="I28">
-        <v>18.202000000000002</v>
-      </c>
-      <c r="J28">
-        <v>25</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>35.932000000000002</v>
-      </c>
-      <c r="F29">
-        <v>22.33</v>
-      </c>
-      <c r="G29">
-        <v>20</v>
-      </c>
-      <c r="H29">
-        <v>15.465999999999999</v>
-      </c>
-      <c r="I29">
-        <v>18.202000000000002</v>
-      </c>
-      <c r="J29">
-        <v>21</v>
-      </c>
-      <c r="K29">
-        <v>24.100999999999999</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>48.253999999999998</v>
-      </c>
-      <c r="F30">
-        <v>28.084</v>
-      </c>
-      <c r="G30">
-        <v>24</v>
-      </c>
-      <c r="H30">
-        <v>15.385999999999999</v>
-      </c>
-      <c r="I30">
-        <v>26.64</v>
-      </c>
-      <c r="J30">
-        <v>28</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>48.253999999999998</v>
-      </c>
-      <c r="F31">
-        <v>20.853999999999999</v>
-      </c>
-      <c r="G31">
-        <v>19</v>
-      </c>
-      <c r="H31">
-        <v>15.385999999999999</v>
-      </c>
-      <c r="I31">
-        <v>26.64</v>
-      </c>
-      <c r="J31">
-        <v>20</v>
-      </c>
-      <c r="K31">
-        <v>20.356999999999999</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>79.144999999999996</v>
-      </c>
-      <c r="F32">
-        <v>27.081</v>
-      </c>
-      <c r="G32">
-        <v>26</v>
-      </c>
-      <c r="H32">
-        <v>22.585999999999999</v>
-      </c>
-      <c r="I32">
-        <v>16.991</v>
-      </c>
-      <c r="J32">
-        <v>27</v>
-      </c>
-      <c r="K32">
-        <v>100</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>79.144999999999996</v>
-      </c>
-      <c r="F33">
-        <v>20.584</v>
-      </c>
-      <c r="G33">
-        <v>18</v>
-      </c>
-      <c r="H33">
-        <v>22.585999999999999</v>
-      </c>
-      <c r="I33">
-        <v>16.991</v>
-      </c>
-      <c r="J33">
-        <v>20</v>
-      </c>
-      <c r="K33">
-        <v>14.426</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>84.960999999999999</v>
-      </c>
-      <c r="F34">
-        <v>31.83</v>
-      </c>
-      <c r="G34">
-        <v>34</v>
-      </c>
-      <c r="H34">
-        <v>24.867000000000001</v>
-      </c>
-      <c r="I34">
-        <v>25.213000000000001</v>
-      </c>
-      <c r="J34">
-        <v>32</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>84.960999999999999</v>
-      </c>
-      <c r="F35">
-        <v>21.541</v>
-      </c>
-      <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>24.867000000000001</v>
-      </c>
-      <c r="I35">
-        <v>25.213000000000001</v>
-      </c>
-      <c r="J35">
-        <v>21</v>
-      </c>
-      <c r="K35">
-        <v>19.725999999999999</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>137.65299999999999</v>
-      </c>
-      <c r="F36">
-        <v>37.466000000000001</v>
-      </c>
-      <c r="G36">
-        <v>40</v>
-      </c>
-      <c r="H36">
-        <v>34.439</v>
-      </c>
-      <c r="I36">
-        <v>13.757</v>
-      </c>
-      <c r="J36">
-        <v>38</v>
-      </c>
-      <c r="K36">
-        <v>100</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <v>137.65299999999999</v>
-      </c>
-      <c r="F37">
-        <v>21.132999999999999</v>
-      </c>
-      <c r="G37">
-        <v>19</v>
-      </c>
-      <c r="H37">
-        <v>34.439</v>
-      </c>
-      <c r="I37">
-        <v>13.757</v>
-      </c>
-      <c r="J37">
-        <v>20</v>
-      </c>
-      <c r="K37">
-        <v>18.091000000000001</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>110.07899999999999</v>
-      </c>
-      <c r="F38">
-        <v>35.238</v>
-      </c>
-      <c r="G38">
-        <v>25</v>
-      </c>
-      <c r="H38">
-        <v>37.966999999999999</v>
-      </c>
-      <c r="I38">
-        <v>29.449000000000002</v>
-      </c>
-      <c r="J38">
-        <v>35</v>
-      </c>
-      <c r="K38">
-        <v>100</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <v>16</v>
-      </c>
-      <c r="E39">
-        <v>110.07899999999999</v>
-      </c>
-      <c r="F39">
-        <v>21.782</v>
-      </c>
-      <c r="G39">
-        <v>20</v>
-      </c>
-      <c r="H39">
-        <v>37.966999999999999</v>
-      </c>
-      <c r="I39">
-        <v>29.449000000000002</v>
-      </c>
-      <c r="J39">
-        <v>21</v>
-      </c>
-      <c r="K39">
-        <v>21.995999999999999</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>17</v>
-      </c>
-      <c r="E40">
-        <v>145.58000000000001</v>
-      </c>
-      <c r="F40">
-        <v>33.496000000000002</v>
-      </c>
-      <c r="G40">
-        <v>38</v>
-      </c>
-      <c r="H40">
-        <v>43.924999999999997</v>
-      </c>
-      <c r="I40">
-        <v>17.856999999999999</v>
-      </c>
-      <c r="J40">
-        <v>34</v>
-      </c>
-      <c r="K40">
-        <v>100</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
-        <v>18</v>
-      </c>
-      <c r="E41">
-        <v>145.58000000000001</v>
-      </c>
-      <c r="F41">
-        <v>22.744</v>
-      </c>
-      <c r="G41">
-        <v>20</v>
-      </c>
-      <c r="H41">
-        <v>43.924999999999997</v>
-      </c>
-      <c r="I41">
-        <v>17.856999999999999</v>
-      </c>
-      <c r="J41">
-        <v>22</v>
-      </c>
-      <c r="K41">
-        <v>27.257000000000001</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>19</v>
-      </c>
-      <c r="E42">
-        <v>156.911</v>
-      </c>
-      <c r="F42">
-        <v>30.172999999999998</v>
-      </c>
-      <c r="G42">
-        <v>20</v>
-      </c>
-      <c r="H42">
-        <v>49.582000000000001</v>
-      </c>
-      <c r="I42">
-        <v>23.827999999999999</v>
-      </c>
-      <c r="J42">
-        <v>30</v>
-      </c>
-      <c r="K42">
-        <v>100</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>20</v>
-      </c>
-      <c r="E43">
-        <v>156.911</v>
-      </c>
-      <c r="F43">
-        <v>21.184999999999999</v>
-      </c>
-      <c r="G43">
-        <v>19</v>
-      </c>
-      <c r="H43">
-        <v>49.582000000000001</v>
-      </c>
-      <c r="I43">
-        <v>23.827999999999999</v>
-      </c>
-      <c r="J43">
-        <v>20</v>
-      </c>
-      <c r="K43">
-        <v>17.050999999999998</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>21</v>
-      </c>
-      <c r="E44">
-        <v>222.054</v>
-      </c>
-      <c r="F44">
-        <v>23.312000000000001</v>
-      </c>
-      <c r="G44">
-        <v>17</v>
-      </c>
-      <c r="H44">
-        <v>57.188000000000002</v>
-      </c>
-      <c r="I44">
-        <v>19.716000000000001</v>
-      </c>
-      <c r="J44">
-        <v>20</v>
-      </c>
-      <c r="K44">
-        <v>100</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B45">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
-        <v>22</v>
-      </c>
-      <c r="E45">
-        <v>222.054</v>
-      </c>
-      <c r="F45">
-        <v>21.597000000000001</v>
-      </c>
-      <c r="G45">
-        <v>18</v>
-      </c>
-      <c r="H45">
-        <v>57.188000000000002</v>
-      </c>
-      <c r="I45">
-        <v>19.716000000000001</v>
-      </c>
-      <c r="J45">
-        <v>20</v>
-      </c>
-      <c r="K45">
-        <v>22.875</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B46">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>23</v>
-      </c>
-      <c r="E46">
-        <v>457.50700000000001</v>
-      </c>
-      <c r="F46">
-        <v>19.654</v>
-      </c>
-      <c r="G46">
-        <v>13</v>
-      </c>
-      <c r="H46">
-        <v>81.076999999999998</v>
-      </c>
-      <c r="I46">
-        <v>14.57</v>
-      </c>
-      <c r="J46">
-        <v>17</v>
-      </c>
-      <c r="K46">
-        <v>100</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B47">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>24</v>
-      </c>
-      <c r="E47">
-        <v>457.50700000000001</v>
-      </c>
-      <c r="F47">
-        <v>19.239000000000001</v>
-      </c>
-      <c r="G47">
-        <v>17</v>
-      </c>
-      <c r="H47">
-        <v>81.076999999999998</v>
-      </c>
-      <c r="I47">
-        <v>14.57</v>
-      </c>
-      <c r="J47">
-        <v>18</v>
-      </c>
-      <c r="K47">
-        <v>11.215999999999999</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>39.939</v>
-      </c>
-      <c r="F48">
-        <v>17.888000000000002</v>
-      </c>
-      <c r="G48">
-        <v>11</v>
-      </c>
-      <c r="H48">
-        <v>4.6040000000000001</v>
-      </c>
-      <c r="I48">
-        <v>23.042000000000002</v>
-      </c>
-      <c r="J48">
-        <v>16</v>
-      </c>
-      <c r="K48">
-        <v>100</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>39.939</v>
-      </c>
-      <c r="F49">
-        <v>18.262</v>
-      </c>
-      <c r="G49">
-        <v>16</v>
-      </c>
-      <c r="H49">
-        <v>4.6040000000000001</v>
-      </c>
-      <c r="I49">
-        <v>23.042000000000002</v>
-      </c>
-      <c r="J49">
-        <v>18</v>
-      </c>
-      <c r="K49">
-        <v>5.2859999999999996</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>80.394000000000005</v>
-      </c>
-      <c r="F50">
-        <v>15.523999999999999</v>
-      </c>
-      <c r="G50">
-        <v>12</v>
-      </c>
-      <c r="H50">
-        <v>8.7780000000000005</v>
-      </c>
-      <c r="I50">
-        <v>16.393999999999998</v>
-      </c>
-      <c r="J50">
-        <v>13</v>
-      </c>
-      <c r="K50">
-        <v>100</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>80.394000000000005</v>
-      </c>
-      <c r="F51">
-        <v>19.309000000000001</v>
-      </c>
-      <c r="G51">
-        <v>18</v>
-      </c>
-      <c r="H51">
-        <v>8.7780000000000005</v>
-      </c>
-      <c r="I51">
-        <v>16.393999999999998</v>
-      </c>
-      <c r="J51">
-        <v>19</v>
-      </c>
-      <c r="K51">
-        <v>10.772</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>36.448999999999998</v>
-      </c>
-      <c r="F52">
-        <v>18.972999999999999</v>
-      </c>
-      <c r="G52">
-        <v>14</v>
-      </c>
-      <c r="H52">
-        <v>11.118</v>
-      </c>
-      <c r="I52">
-        <v>23.7</v>
-      </c>
-      <c r="J52">
-        <v>17</v>
-      </c>
-      <c r="K52">
-        <v>100</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <v>36.448999999999998</v>
-      </c>
-      <c r="F53">
-        <v>20.417999999999999</v>
-      </c>
-      <c r="G53">
-        <v>19</v>
-      </c>
-      <c r="H53">
-        <v>11.118</v>
-      </c>
-      <c r="I53">
-        <v>23.7</v>
-      </c>
-      <c r="J53">
-        <v>20</v>
-      </c>
-      <c r="K53">
-        <v>13.83</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>29.599</v>
-      </c>
-      <c r="F54">
-        <v>19.606999999999999</v>
-      </c>
-      <c r="G54">
-        <v>16</v>
-      </c>
-      <c r="H54">
-        <v>14.923999999999999</v>
-      </c>
-      <c r="I54">
-        <v>28.548999999999999</v>
-      </c>
-      <c r="J54">
-        <v>19</v>
-      </c>
-      <c r="K54">
-        <v>100</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>29.599</v>
-      </c>
-      <c r="F55">
-        <v>18.863</v>
-      </c>
-      <c r="G55">
-        <v>17</v>
-      </c>
-      <c r="H55">
-        <v>14.923999999999999</v>
-      </c>
-      <c r="I55">
-        <v>28.548999999999999</v>
-      </c>
-      <c r="J55">
-        <v>18</v>
-      </c>
-      <c r="K55">
-        <v>8.2970000000000006</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>9</v>
-      </c>
-      <c r="E56">
-        <v>35.630000000000003</v>
-      </c>
-      <c r="F56">
-        <v>20.172999999999998</v>
-      </c>
-      <c r="G56">
-        <v>16</v>
-      </c>
-      <c r="H56">
-        <v>18.006</v>
-      </c>
-      <c r="I56">
-        <v>22.399000000000001</v>
-      </c>
-      <c r="J56">
-        <v>20</v>
-      </c>
-      <c r="K56">
-        <v>100</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>35.630000000000003</v>
-      </c>
-      <c r="F57">
-        <v>19.873999999999999</v>
-      </c>
-      <c r="G57">
-        <v>18</v>
-      </c>
-      <c r="H57">
-        <v>18.006</v>
-      </c>
-      <c r="I57">
-        <v>22.399000000000001</v>
-      </c>
-      <c r="J57">
-        <v>19</v>
-      </c>
-      <c r="K57">
-        <v>11.608000000000001</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58">
-        <v>11</v>
-      </c>
-      <c r="E58">
-        <v>69.968000000000004</v>
-      </c>
-      <c r="F58">
-        <v>16.638000000000002</v>
-      </c>
-      <c r="G58">
-        <v>17</v>
-      </c>
-      <c r="H58">
-        <v>22.074999999999999</v>
-      </c>
-      <c r="I58">
-        <v>19.001000000000001</v>
-      </c>
-      <c r="J58">
-        <v>17</v>
-      </c>
-      <c r="K58">
-        <v>100</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59">
-        <v>12</v>
-      </c>
-      <c r="E59">
-        <v>69.968000000000004</v>
-      </c>
-      <c r="F59">
-        <v>19.478000000000002</v>
-      </c>
-      <c r="G59">
-        <v>18</v>
-      </c>
-      <c r="H59">
-        <v>22.074999999999999</v>
-      </c>
-      <c r="I59">
-        <v>19.001000000000001</v>
-      </c>
-      <c r="J59">
-        <v>19</v>
-      </c>
-      <c r="K59">
-        <v>10.16</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>13</v>
-      </c>
-      <c r="E60">
-        <v>69.709999999999994</v>
-      </c>
-      <c r="F60">
-        <v>15.404999999999999</v>
-      </c>
-      <c r="G60">
-        <v>17</v>
-      </c>
-      <c r="H60">
-        <v>28.751999999999999</v>
-      </c>
-      <c r="I60">
-        <v>14.407</v>
-      </c>
-      <c r="J60">
-        <v>15</v>
-      </c>
-      <c r="K60">
-        <v>100</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B61">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61">
-        <v>14</v>
-      </c>
-      <c r="E61">
-        <v>69.709999999999994</v>
-      </c>
-      <c r="F61">
-        <v>17.812999999999999</v>
-      </c>
-      <c r="G61">
-        <v>16</v>
-      </c>
-      <c r="H61">
-        <v>28.751999999999999</v>
-      </c>
-      <c r="I61">
-        <v>14.407</v>
-      </c>
-      <c r="J61">
-        <v>17</v>
-      </c>
-      <c r="K61">
-        <v>7.4169999999999998</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B62">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62">
-        <v>15</v>
-      </c>
-      <c r="E62">
-        <v>45.841000000000001</v>
-      </c>
-      <c r="F62">
-        <v>19.489000000000001</v>
-      </c>
-      <c r="G62">
-        <v>16</v>
-      </c>
-      <c r="H62">
-        <v>28.202000000000002</v>
-      </c>
-      <c r="I62">
-        <v>23.965</v>
-      </c>
-      <c r="J62">
-        <v>19</v>
-      </c>
-      <c r="K62">
-        <v>100</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B63">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <v>16</v>
-      </c>
-      <c r="E63">
-        <v>45.841000000000001</v>
-      </c>
-      <c r="F63">
-        <v>19.463000000000001</v>
-      </c>
-      <c r="G63">
-        <v>18</v>
-      </c>
-      <c r="H63">
-        <v>28.202000000000002</v>
-      </c>
-      <c r="I63">
-        <v>23.965</v>
-      </c>
-      <c r="J63">
-        <v>19</v>
-      </c>
-      <c r="K63">
-        <v>10.15</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B64">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64">
-        <v>17</v>
-      </c>
-      <c r="E64">
-        <v>92.802999999999997</v>
-      </c>
-      <c r="F64">
-        <v>24.265999999999998</v>
-      </c>
-      <c r="G64">
-        <v>23</v>
-      </c>
-      <c r="H64">
-        <v>30.462</v>
-      </c>
-      <c r="I64">
-        <v>31.898</v>
-      </c>
-      <c r="J64">
-        <v>24</v>
-      </c>
-      <c r="K64">
-        <v>100</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B65">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65">
-        <v>18</v>
-      </c>
-      <c r="E65">
-        <v>92.802999999999997</v>
-      </c>
-      <c r="F65">
-        <v>19.398</v>
-      </c>
-      <c r="G65">
-        <v>17</v>
-      </c>
-      <c r="H65">
-        <v>30.462</v>
-      </c>
-      <c r="I65">
-        <v>31.898</v>
-      </c>
-      <c r="J65">
-        <v>19</v>
-      </c>
-      <c r="K65">
-        <v>10.539</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66">
-        <v>19</v>
-      </c>
-      <c r="E66">
-        <v>91.596000000000004</v>
-      </c>
-      <c r="F66">
-        <v>24.556999999999999</v>
-      </c>
-      <c r="G66">
-        <v>25</v>
-      </c>
-      <c r="H66">
-        <v>36.689</v>
-      </c>
-      <c r="I66">
-        <v>20.349</v>
-      </c>
-      <c r="J66">
-        <v>25</v>
-      </c>
-      <c r="K66">
-        <v>100</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>20</v>
-      </c>
-      <c r="E67">
-        <v>91.596000000000004</v>
-      </c>
-      <c r="F67">
-        <v>18.808</v>
-      </c>
-      <c r="G67">
-        <v>16</v>
-      </c>
-      <c r="H67">
-        <v>36.689</v>
-      </c>
-      <c r="I67">
-        <v>20.349</v>
-      </c>
-      <c r="J67">
-        <v>18</v>
-      </c>
-      <c r="K67">
-        <v>10.019</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
-        <v>21</v>
-      </c>
-      <c r="E68">
-        <v>90.475999999999999</v>
-      </c>
-      <c r="F68">
-        <v>25.099</v>
-      </c>
-      <c r="G68">
-        <v>27</v>
-      </c>
-      <c r="H68">
-        <v>43.996000000000002</v>
-      </c>
-      <c r="I68">
-        <v>20.864000000000001</v>
-      </c>
-      <c r="J68">
-        <v>25</v>
-      </c>
-      <c r="K68">
-        <v>100</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69">
-        <v>22</v>
-      </c>
-      <c r="E69">
-        <v>90.475999999999999</v>
-      </c>
-      <c r="F69">
-        <v>18.931000000000001</v>
-      </c>
-      <c r="G69">
-        <v>17</v>
-      </c>
-      <c r="H69">
-        <v>43.996000000000002</v>
-      </c>
-      <c r="I69">
-        <v>20.864000000000001</v>
-      </c>
-      <c r="J69">
-        <v>18</v>
-      </c>
-      <c r="K69">
-        <v>9.3330000000000002</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B70">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>23</v>
-      </c>
-      <c r="E70">
-        <v>65.573999999999998</v>
-      </c>
-      <c r="F70">
-        <v>23.719000000000001</v>
-      </c>
-      <c r="G70">
-        <v>24</v>
-      </c>
-      <c r="H70">
-        <v>41.128</v>
-      </c>
-      <c r="I70">
-        <v>36.1</v>
-      </c>
-      <c r="J70">
-        <v>24</v>
-      </c>
-      <c r="K70">
-        <v>100</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B71">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71">
-        <v>24</v>
-      </c>
-      <c r="E71">
-        <v>65.573999999999998</v>
-      </c>
-      <c r="F71">
-        <v>19.311</v>
-      </c>
-      <c r="G71">
-        <v>19</v>
-      </c>
-      <c r="H71">
-        <v>41.128</v>
-      </c>
-      <c r="I71">
-        <v>36.1</v>
-      </c>
-      <c r="J71">
-        <v>19</v>
-      </c>
-      <c r="K71">
-        <v>11.497999999999999</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B72">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72">
-        <v>25</v>
-      </c>
-      <c r="E72">
-        <v>124.16800000000001</v>
-      </c>
-      <c r="F72">
-        <v>21.155000000000001</v>
-      </c>
-      <c r="G72">
-        <v>16</v>
-      </c>
-      <c r="H72">
-        <v>50.01</v>
-      </c>
-      <c r="I72">
-        <v>31.033999999999999</v>
-      </c>
-      <c r="J72">
-        <v>20</v>
-      </c>
-      <c r="K72">
-        <v>100</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B73">
-        <v>13</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73">
-        <v>26</v>
-      </c>
-      <c r="E73">
-        <v>124.16800000000001</v>
-      </c>
-      <c r="F73">
-        <v>19.291</v>
-      </c>
-      <c r="G73">
-        <v>17</v>
-      </c>
-      <c r="H73">
-        <v>50.01</v>
-      </c>
-      <c r="I73">
-        <v>31.033999999999999</v>
-      </c>
-      <c r="J73">
-        <v>18</v>
-      </c>
-      <c r="K73">
-        <v>10.651999999999999</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B74">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74">
-        <v>27</v>
-      </c>
-      <c r="E74">
-        <v>149.37200000000001</v>
-      </c>
-      <c r="F74">
-        <v>16.106000000000002</v>
-      </c>
-      <c r="G74">
-        <v>11</v>
-      </c>
-      <c r="H74">
-        <v>56.662999999999997</v>
-      </c>
-      <c r="I74">
-        <v>34.249000000000002</v>
-      </c>
-      <c r="J74">
-        <v>15</v>
-      </c>
-      <c r="K74">
-        <v>100</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B75">
-        <v>14</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75">
-        <v>28</v>
-      </c>
-      <c r="E75">
-        <v>149.37200000000001</v>
-      </c>
-      <c r="F75">
-        <v>18.774999999999999</v>
-      </c>
-      <c r="G75">
-        <v>17</v>
-      </c>
-      <c r="H75">
-        <v>56.662999999999997</v>
-      </c>
-      <c r="I75">
-        <v>34.249000000000002</v>
-      </c>
-      <c r="J75">
-        <v>18</v>
-      </c>
-      <c r="K75">
-        <v>11.912000000000001</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B76">
-        <v>15</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76">
-        <v>29</v>
-      </c>
-      <c r="E76">
-        <v>358.71600000000001</v>
-      </c>
-      <c r="F76">
-        <v>14.523</v>
-      </c>
-      <c r="G76">
-        <v>10</v>
-      </c>
-      <c r="H76">
-        <v>70.912000000000006</v>
-      </c>
-      <c r="I76">
-        <v>18.823</v>
-      </c>
-      <c r="J76">
-        <v>13</v>
-      </c>
-      <c r="K76">
-        <v>100</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B77">
-        <v>15</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77">
-        <v>30</v>
-      </c>
-      <c r="E77">
-        <v>358.71600000000001</v>
-      </c>
-      <c r="F77">
-        <v>17.207000000000001</v>
-      </c>
-      <c r="G77">
-        <v>15</v>
-      </c>
-      <c r="H77">
-        <v>70.912000000000006</v>
-      </c>
-      <c r="I77">
-        <v>18.823</v>
-      </c>
-      <c r="J77">
-        <v>16</v>
-      </c>
-      <c r="K77">
-        <v>7.0140000000000002</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2.4</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="F78">
-        <v>17.183</v>
-      </c>
-      <c r="G78">
-        <v>12</v>
-      </c>
-      <c r="H78">
-        <v>5.6059999999999999</v>
-      </c>
-      <c r="I78">
-        <v>17.754999999999999</v>
-      </c>
-      <c r="J78">
-        <v>16</v>
-      </c>
-      <c r="K78">
-        <v>100</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2.4</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="F79">
-        <v>15.36</v>
-      </c>
-      <c r="G79">
-        <v>14</v>
-      </c>
-      <c r="H79">
-        <v>5.6059999999999999</v>
-      </c>
-      <c r="I79">
-        <v>17.754999999999999</v>
-      </c>
-      <c r="J79">
-        <v>15</v>
-      </c>
-      <c r="K79">
-        <v>2.5379999999999998</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2.4</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>77.680000000000007</v>
-      </c>
-      <c r="F80">
-        <v>15.875999999999999</v>
-      </c>
-      <c r="G80">
-        <v>12</v>
-      </c>
-      <c r="H80">
-        <v>9.7880000000000003</v>
-      </c>
-      <c r="I80">
-        <v>25.878</v>
-      </c>
-      <c r="J80">
-        <v>14</v>
-      </c>
-      <c r="K80">
-        <v>100</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2.4</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <v>77.680000000000007</v>
-      </c>
-      <c r="F81">
-        <v>16.55</v>
-      </c>
-      <c r="G81">
-        <v>16</v>
-      </c>
-      <c r="H81">
-        <v>9.7880000000000003</v>
-      </c>
-      <c r="I81">
-        <v>25.878</v>
-      </c>
-      <c r="J81">
-        <v>16</v>
-      </c>
-      <c r="K81">
-        <v>5.1029999999999998</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2.4</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="E82">
-        <v>113.61199999999999</v>
-      </c>
-      <c r="F82">
-        <v>16.725999999999999</v>
-      </c>
-      <c r="G82">
-        <v>12</v>
-      </c>
-      <c r="H82">
-        <v>15.692</v>
-      </c>
-      <c r="I82">
-        <v>15.986000000000001</v>
-      </c>
-      <c r="J82">
-        <v>16</v>
-      </c>
-      <c r="K82">
-        <v>100</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2.4</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83">
-        <v>6</v>
-      </c>
-      <c r="E83">
-        <v>113.61199999999999</v>
-      </c>
-      <c r="F83">
-        <v>16.32</v>
-      </c>
-      <c r="G83">
-        <v>15</v>
-      </c>
-      <c r="H83">
-        <v>15.692</v>
-      </c>
-      <c r="I83">
-        <v>15.986000000000001</v>
-      </c>
-      <c r="J83">
-        <v>16</v>
-      </c>
-      <c r="K83">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2.4</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84">
-        <v>7</v>
-      </c>
-      <c r="E84">
-        <v>110.639</v>
-      </c>
-      <c r="F84">
-        <v>14.427</v>
-      </c>
-      <c r="G84">
-        <v>13</v>
-      </c>
-      <c r="H84">
-        <v>20.523</v>
-      </c>
-      <c r="I84">
-        <v>26.388000000000002</v>
-      </c>
-      <c r="J84">
-        <v>14</v>
-      </c>
-      <c r="K84">
-        <v>100</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2.4</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85">
-        <v>8</v>
-      </c>
-      <c r="E85">
-        <v>110.639</v>
-      </c>
-      <c r="F85">
-        <v>16.198</v>
-      </c>
-      <c r="G85">
-        <v>15</v>
-      </c>
-      <c r="H85">
-        <v>20.523</v>
-      </c>
-      <c r="I85">
-        <v>26.388000000000002</v>
-      </c>
-      <c r="J85">
-        <v>15</v>
-      </c>
-      <c r="K85">
-        <v>4.556</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2.4</v>
-      </c>
-      <c r="B86">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>125.15900000000001</v>
-      </c>
-      <c r="F86">
-        <v>21.405999999999999</v>
-      </c>
-      <c r="G86">
-        <v>19</v>
-      </c>
-      <c r="H86">
-        <v>29.056000000000001</v>
-      </c>
-      <c r="I86">
-        <v>29.181999999999999</v>
-      </c>
-      <c r="J86">
-        <v>21</v>
-      </c>
-      <c r="K86">
-        <v>100</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2.4</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87">
-        <v>10</v>
-      </c>
-      <c r="E87">
-        <v>125.15900000000001</v>
-      </c>
-      <c r="F87">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="G87">
-        <v>14</v>
-      </c>
-      <c r="H87">
-        <v>29.056000000000001</v>
-      </c>
-      <c r="I87">
-        <v>29.181999999999999</v>
-      </c>
-      <c r="J87">
-        <v>16</v>
-      </c>
-      <c r="K87">
-        <v>5.3010000000000002</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>2.4</v>
-      </c>
-      <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88">
-        <v>11</v>
-      </c>
-      <c r="E88">
-        <v>169.44900000000001</v>
-      </c>
-      <c r="F88">
-        <v>25.579000000000001</v>
-      </c>
-      <c r="G88">
-        <v>28</v>
-      </c>
-      <c r="H88">
-        <v>32.54</v>
-      </c>
-      <c r="I88">
-        <v>12.414999999999999</v>
-      </c>
-      <c r="J88">
-        <v>26</v>
-      </c>
-      <c r="K88">
-        <v>100</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>2.4</v>
-      </c>
-      <c r="B89">
-        <v>6</v>
-      </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89">
-        <v>12</v>
-      </c>
-      <c r="E89">
-        <v>169.44900000000001</v>
-      </c>
-      <c r="F89">
-        <v>16.652999999999999</v>
-      </c>
-      <c r="G89">
-        <v>15</v>
-      </c>
-      <c r="H89">
-        <v>32.54</v>
-      </c>
-      <c r="I89">
-        <v>12.414999999999999</v>
-      </c>
-      <c r="J89">
-        <v>16</v>
-      </c>
-      <c r="K89">
-        <v>4.6020000000000003</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>2.4</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90">
-        <v>13</v>
-      </c>
-      <c r="E90">
-        <v>135.28299999999999</v>
-      </c>
-      <c r="F90">
-        <v>24.635999999999999</v>
-      </c>
-      <c r="G90">
-        <v>26</v>
-      </c>
-      <c r="H90">
-        <v>38.630000000000003</v>
-      </c>
-      <c r="I90">
-        <v>23.716999999999999</v>
-      </c>
-      <c r="J90">
-        <v>25</v>
-      </c>
-      <c r="K90">
-        <v>100</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>2.4</v>
-      </c>
-      <c r="B91">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91">
-        <v>14</v>
-      </c>
-      <c r="E91">
-        <v>135.28299999999999</v>
-      </c>
-      <c r="F91">
-        <v>17.367999999999999</v>
-      </c>
-      <c r="G91">
-        <v>15</v>
-      </c>
-      <c r="H91">
-        <v>38.630000000000003</v>
-      </c>
-      <c r="I91">
-        <v>23.716999999999999</v>
-      </c>
-      <c r="J91">
-        <v>16</v>
-      </c>
-      <c r="K91">
-        <v>7.7069999999999999</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>2.4</v>
-      </c>
-      <c r="B92">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92">
-        <v>15</v>
-      </c>
-      <c r="E92">
-        <v>75.914000000000001</v>
-      </c>
-      <c r="F92">
-        <v>22.347000000000001</v>
-      </c>
-      <c r="G92">
-        <v>20</v>
-      </c>
-      <c r="H92">
-        <v>45.362000000000002</v>
-      </c>
-      <c r="I92">
-        <v>19.434999999999999</v>
-      </c>
-      <c r="J92">
-        <v>22</v>
-      </c>
-      <c r="K92">
-        <v>100</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>2.4</v>
-      </c>
-      <c r="B93">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93">
-        <v>16</v>
-      </c>
-      <c r="E93">
-        <v>75.914000000000001</v>
-      </c>
-      <c r="F93">
-        <v>18.896000000000001</v>
-      </c>
-      <c r="G93">
-        <v>15</v>
-      </c>
-      <c r="H93">
-        <v>45.362000000000002</v>
-      </c>
-      <c r="I93">
-        <v>19.434999999999999</v>
-      </c>
-      <c r="J93">
-        <v>17</v>
-      </c>
-      <c r="K93">
-        <v>14.869</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>2.4</v>
-      </c>
-      <c r="B94">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94">
-        <v>17</v>
-      </c>
-      <c r="E94">
-        <v>151.95699999999999</v>
-      </c>
-      <c r="F94">
-        <v>19.452999999999999</v>
-      </c>
-      <c r="G94">
-        <v>15</v>
-      </c>
-      <c r="H94">
-        <v>50.420999999999999</v>
-      </c>
-      <c r="I94">
-        <v>18.527000000000001</v>
-      </c>
-      <c r="J94">
-        <v>18</v>
-      </c>
-      <c r="K94">
-        <v>100</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>2.4</v>
-      </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>18</v>
-      </c>
-      <c r="E95">
-        <v>151.95699999999999</v>
-      </c>
-      <c r="F95">
-        <v>17.582000000000001</v>
-      </c>
-      <c r="G95">
-        <v>15</v>
-      </c>
-      <c r="H95">
-        <v>50.420999999999999</v>
-      </c>
-      <c r="I95">
-        <v>18.527000000000001</v>
-      </c>
-      <c r="J95">
-        <v>16</v>
-      </c>
-      <c r="K95">
-        <v>8.3070000000000004</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>2.4</v>
-      </c>
-      <c r="B96">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>19</v>
-      </c>
-      <c r="E96">
-        <v>193.96299999999999</v>
-      </c>
-      <c r="F96">
-        <v>17.143000000000001</v>
-      </c>
-      <c r="G96">
-        <v>12</v>
-      </c>
-      <c r="H96">
-        <v>59.497999999999998</v>
-      </c>
-      <c r="I96">
-        <v>20.736000000000001</v>
-      </c>
-      <c r="J96">
-        <v>15</v>
-      </c>
-      <c r="K96">
-        <v>100</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>2.4</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>193.96299999999999</v>
-      </c>
-      <c r="F97">
-        <v>17.225000000000001</v>
-      </c>
-      <c r="G97">
-        <v>15</v>
-      </c>
-      <c r="H97">
-        <v>59.497999999999998</v>
-      </c>
-      <c r="I97">
-        <v>20.736000000000001</v>
-      </c>
-      <c r="J97">
-        <v>16</v>
-      </c>
-      <c r="K97">
-        <v>7.641</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>2.4</v>
-      </c>
-      <c r="B98">
-        <v>11</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>21</v>
-      </c>
-      <c r="E98">
-        <v>405.24700000000001</v>
-      </c>
-      <c r="F98">
-        <v>16.936</v>
-      </c>
-      <c r="G98">
-        <v>10</v>
-      </c>
-      <c r="H98">
-        <v>86.594999999999999</v>
-      </c>
-      <c r="I98">
-        <v>21.061</v>
-      </c>
-      <c r="J98">
-        <v>13</v>
-      </c>
-      <c r="K98">
-        <v>100</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>2.4</v>
-      </c>
-      <c r="B99">
-        <v>11</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99">
-        <v>22</v>
-      </c>
-      <c r="E99">
-        <v>405.24700000000001</v>
-      </c>
-      <c r="F99">
-        <v>15.971</v>
-      </c>
-      <c r="G99">
-        <v>14</v>
-      </c>
-      <c r="H99">
-        <v>86.594999999999999</v>
-      </c>
-      <c r="I99">
-        <v>21.061</v>
-      </c>
-      <c r="J99">
-        <v>15</v>
-      </c>
-      <c r="K99">
-        <v>5.2939999999999996</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA4D60-8214-F046-A99D-FA3A0FE7B991}">
   <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -4237,22 +452,22 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4260,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>46.014000000000003</v>
@@ -4281,7 +496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4289,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>46.014000000000003</v>
@@ -4310,7 +525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4318,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>64.754999999999995</v>
@@ -4339,7 +554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4347,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>64.754999999999995</v>
@@ -4368,7 +583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4376,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>38.258000000000003</v>
@@ -4397,7 +612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4405,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>38.258000000000003</v>
@@ -4426,7 +641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4434,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>36.061</v>
@@ -4455,7 +670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4463,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>36.061</v>
@@ -4484,7 +699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4492,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>39.076999999999998</v>
@@ -4513,7 +728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4521,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>39.076999999999998</v>
@@ -4542,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4550,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>31.58</v>
@@ -4571,7 +786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4579,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>31.58</v>
@@ -4600,7 +815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4608,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>43.773000000000003</v>
@@ -4629,7 +844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4637,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>43.773000000000003</v>
@@ -4658,7 +873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4666,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>29.814</v>
@@ -4687,7 +902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4695,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>29.814</v>
@@ -4716,7 +931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4724,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>33.045000000000002</v>
@@ -4745,7 +960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4753,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>33.045000000000002</v>
@@ -4774,7 +989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4782,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>34.209000000000003</v>
@@ -4803,7 +1018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4811,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>34.209000000000003</v>
@@ -4832,7 +1047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4840,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>36.363</v>
@@ -4861,7 +1076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4869,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>36.363</v>
@@ -4890,7 +1105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4898,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>27.917999999999999</v>
@@ -4919,7 +1134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4927,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>27.917999999999999</v>
@@ -4948,7 +1163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4956,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>37.784999999999997</v>
@@ -4977,7 +1192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4985,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>37.784999999999997</v>
@@ -5006,7 +1221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5014,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>44.548999999999999</v>
@@ -5035,7 +1250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5043,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>44.548999999999999</v>
@@ -5064,7 +1279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5072,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>40.670999999999999</v>
@@ -5093,7 +1308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5101,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>40.670999999999999</v>
@@ -5122,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -5130,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>69.796000000000006</v>
@@ -5151,7 +1366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5159,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>69.796000000000006</v>
@@ -5180,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -5188,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>57.905000000000001</v>
@@ -5209,7 +1424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5217,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>57.905000000000001</v>
@@ -5238,7 +1453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -5246,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>58.896000000000001</v>
@@ -5267,7 +1482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -5275,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>58.896000000000001</v>
@@ -5296,7 +1511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -5304,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>30.632999999999999</v>
@@ -5325,7 +1540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -5333,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>30.632999999999999</v>
@@ -5354,7 +1569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -5362,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>26.324000000000002</v>
@@ -5383,7 +1598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -5391,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>26.324000000000002</v>
@@ -5412,7 +1627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5420,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>25.721</v>
@@ -5441,7 +1656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5449,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>25.721</v>
@@ -5470,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -5478,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>27.530999999999999</v>
@@ -5499,7 +1714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5507,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>27.530999999999999</v>
@@ -5528,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -5536,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>30.719000000000001</v>
@@ -5557,7 +1772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -5565,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>30.719000000000001</v>
@@ -5586,7 +1801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -5594,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>33.648000000000003</v>
@@ -5615,7 +1830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -5623,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>33.648000000000003</v>
@@ -5644,7 +1859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5652,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>29.469000000000001</v>
@@ -5673,7 +1888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -5681,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>29.469000000000001</v>
@@ -5702,7 +1917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5710,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>31.536999999999999</v>
@@ -5731,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -5739,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>31.536999999999999</v>
@@ -5760,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -5768,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>34.295000000000002</v>
@@ -5789,7 +2004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5797,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>34.295000000000002</v>
@@ -5818,7 +2033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -5826,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56">
         <v>35.845999999999997</v>
@@ -5847,7 +2062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -5855,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>35.845999999999997</v>
@@ -5876,7 +2091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -5884,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>28.651</v>
@@ -5905,7 +2120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -5913,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>28.651</v>
@@ -5934,7 +2149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -5942,7 +2157,7 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>30.503</v>
@@ -5963,7 +2178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -5971,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>30.503</v>
@@ -5992,7 +2207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -6000,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>58.335999999999999</v>
@@ -6021,7 +2236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -6029,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>58.335999999999999</v>
@@ -6050,7 +2265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6058,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64">
         <v>61.308</v>
@@ -6079,7 +2294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -6087,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>61.308</v>
@@ -6108,7 +2323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -6116,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>62.558</v>
@@ -6137,7 +2352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -6145,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>62.558</v>
@@ -6166,7 +2381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -6174,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>53.941000000000003</v>
@@ -6195,7 +2410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -6203,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>53.941000000000003</v>
@@ -6224,7 +2439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -6232,7 +2447,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>38.085999999999999</v>
@@ -6253,7 +2468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -6261,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71">
         <v>38.085999999999999</v>
@@ -6282,7 +2497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -6290,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>35.414999999999999</v>
@@ -6311,7 +2526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -6319,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>35.414999999999999</v>
@@ -6340,7 +2555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -6348,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>35.286000000000001</v>
@@ -6369,7 +2584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -6377,7 +2592,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>35.286000000000001</v>
@@ -6398,7 +2613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -6406,7 +2621,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>33.561999999999998</v>
@@ -6427,7 +2642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -6435,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>33.561999999999998</v>
@@ -6456,7 +2671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -6464,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>31.882000000000001</v>
@@ -6485,7 +2700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -6493,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79">
         <v>31.882000000000001</v>
@@ -6514,7 +2729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -6522,7 +2737,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80">
         <v>33.304000000000002</v>
@@ -6543,7 +2758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -6551,7 +2766,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <v>33.304000000000002</v>
@@ -6572,7 +2787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -6580,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>37.871000000000002</v>
@@ -6601,7 +2816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -6609,7 +2824,7 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>37.871000000000002</v>
@@ -6630,7 +2845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6638,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>36.018000000000001</v>
@@ -6659,7 +2874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -6667,7 +2882,7 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85">
         <v>36.018000000000001</v>
@@ -6688,7 +2903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -6696,7 +2911,7 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>39.722999999999999</v>
@@ -6717,7 +2932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -6725,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87">
         <v>39.722999999999999</v>
@@ -6746,7 +2961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -6754,7 +2969,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E88">
         <v>32.959000000000003</v>
@@ -6775,7 +2990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -6783,7 +2998,7 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89">
         <v>32.959000000000003</v>
@@ -6804,7 +3019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -6812,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90">
         <v>47.823</v>
@@ -6833,7 +3048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -6841,7 +3056,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91">
         <v>47.823</v>
@@ -6862,7 +3077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -6870,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <v>71.475999999999999</v>
@@ -6891,7 +3106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -6899,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>71.475999999999999</v>
@@ -6920,7 +3135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -6928,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94">
         <v>41.704999999999998</v>
@@ -6949,7 +3164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6957,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>41.704999999999998</v>
@@ -6978,7 +3193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -6986,7 +3201,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>38.430999999999997</v>
@@ -7007,7 +3222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -7015,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>38.430999999999997</v>
@@ -7036,7 +3251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -7044,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>35.975000000000001</v>
@@ -7065,7 +3280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -7073,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99">
         <v>35.975000000000001</v>
@@ -7094,7 +3309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7102,7 +3317,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>25.893000000000001</v>
@@ -7123,7 +3338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -7131,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101">
         <v>25.893000000000001</v>
@@ -7152,7 +3367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -7160,7 +3375,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E102">
         <v>27.358000000000001</v>
@@ -7181,7 +3396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -7189,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>27.358000000000001</v>
@@ -7210,7 +3425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7218,7 +3433,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104">
         <v>22.661999999999999</v>
@@ -7239,7 +3454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -7247,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105">
         <v>22.661999999999999</v>
@@ -7268,7 +3483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -7276,7 +3491,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106">
         <v>25.721</v>
@@ -7297,7 +3512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -7305,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>25.721</v>
@@ -7326,7 +3541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -7334,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108">
         <v>26.152000000000001</v>
@@ -7355,7 +3570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -7363,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109">
         <v>26.152000000000001</v>
@@ -7384,7 +3599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -7392,7 +3607,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E110">
         <v>34.768999999999998</v>
@@ -7413,7 +3628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -7421,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <v>34.768999999999998</v>
@@ -7442,7 +3657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -7450,7 +3665,7 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <v>27.574000000000002</v>
@@ -7471,7 +3686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -7479,7 +3694,7 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113">
         <v>27.574000000000002</v>
@@ -7500,7 +3715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -7508,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114">
         <v>28.823</v>
@@ -7529,7 +3744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -7537,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115">
         <v>28.823</v>
@@ -7558,7 +3773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -7566,7 +3781,7 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E116">
         <v>32.011000000000003</v>
@@ -7587,7 +3802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -7595,7 +3810,7 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117">
         <v>32.011000000000003</v>
@@ -7616,7 +3831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -7624,7 +3839,7 @@
         <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118">
         <v>33.993000000000002</v>
@@ -7645,7 +3860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -7653,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119">
         <v>33.993000000000002</v>
@@ -7674,7 +3889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -7682,7 +3897,7 @@
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E120">
         <v>41.015999999999998</v>
@@ -7703,7 +3918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -7711,7 +3926,7 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121">
         <v>41.015999999999998</v>
@@ -7732,7 +3947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -7740,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E122">
         <v>59.197000000000003</v>
@@ -7761,7 +3976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -7769,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123">
         <v>59.197000000000003</v>
@@ -7790,7 +4005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -7798,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124">
         <v>59.24</v>
@@ -7819,7 +4034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -7827,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125">
         <v>59.24</v>
@@ -7848,7 +4063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -7856,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126">
         <v>46.917999999999999</v>
@@ -7877,7 +4092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -7885,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127">
         <v>46.917999999999999</v>
@@ -7906,7 +4121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -7914,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128">
         <v>23.265000000000001</v>
@@ -7935,7 +4150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -7943,7 +4158,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E129">
         <v>23.265000000000001</v>
@@ -7964,7 +4179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -7972,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E130">
         <v>37.052</v>
@@ -7993,7 +4208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -8001,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131">
         <v>37.052</v>
@@ -8022,7 +4237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -8030,7 +4245,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>41.36</v>
@@ -8051,7 +4266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -8059,7 +4274,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E133">
         <v>41.36</v>
@@ -8080,7 +4295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -8088,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134">
         <v>32.701000000000001</v>
@@ -8109,7 +4324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -8117,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135">
         <v>32.701000000000001</v>
@@ -8138,7 +4353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5</v>
       </c>
@@ -8146,7 +4361,7 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136">
         <v>29.943000000000001</v>
@@ -8167,7 +4382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -8175,7 +4390,7 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137">
         <v>29.943000000000001</v>
@@ -8196,7 +4411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5</v>
       </c>
@@ -8204,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>29.512</v>
@@ -8225,7 +4440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5</v>
       </c>
@@ -8233,7 +4448,7 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139">
         <v>29.512</v>
@@ -8254,7 +4469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -8262,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140">
         <v>30.675999999999998</v>
@@ -8283,7 +4498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -8291,7 +4506,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E141">
         <v>30.675999999999998</v>
@@ -8312,7 +4527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -8320,7 +4535,7 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142">
         <v>32.872999999999998</v>
@@ -8341,7 +4556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -8349,7 +4564,7 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143">
         <v>32.872999999999998</v>
@@ -8370,7 +4585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -8378,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144">
         <v>28.521000000000001</v>
@@ -8399,7 +4614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -8407,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145">
         <v>28.521000000000001</v>
@@ -8428,7 +4643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -8436,7 +4651,7 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146">
         <v>27.271999999999998</v>
@@ -8457,7 +4672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -8465,7 +4680,7 @@
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E147">
         <v>27.271999999999998</v>
@@ -8486,7 +4701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -8494,7 +4709,7 @@
         <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148">
         <v>36.534999999999997</v>
@@ -8515,7 +4730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -8523,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149">
         <v>36.534999999999997</v>
@@ -8544,7 +4759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -8552,7 +4767,7 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E150">
         <v>28.693999999999999</v>
@@ -8573,7 +4788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -8581,7 +4796,7 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151">
         <v>28.693999999999999</v>
@@ -8602,7 +4817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -8610,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152">
         <v>46.186</v>
@@ -8631,7 +4846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6</v>
       </c>
@@ -8639,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153">
         <v>46.186</v>
@@ -8660,7 +4875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6</v>
       </c>
@@ -8668,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E154">
         <v>55.363</v>
@@ -8689,7 +4904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -8697,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155">
         <v>55.363</v>
@@ -8718,7 +4933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6</v>
       </c>
@@ -8726,7 +4941,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E156">
         <v>55.103999999999999</v>
@@ -8747,7 +4962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -8755,7 +4970,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157">
         <v>55.103999999999999</v>
@@ -8776,7 +4991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6</v>
       </c>
@@ -8784,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E158">
         <v>44.893000000000001</v>
@@ -8805,7 +5020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6</v>
       </c>
@@ -8813,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E159">
         <v>44.893000000000001</v>
@@ -8834,7 +5049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6</v>
       </c>
@@ -8842,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E160">
         <v>50.15</v>
@@ -8863,7 +5078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6</v>
       </c>
@@ -8871,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161">
         <v>50.15</v>
@@ -8892,7 +5107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6</v>
       </c>
@@ -8900,7 +5115,7 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>41.188000000000002</v>
@@ -8921,7 +5136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
@@ -8929,7 +5144,7 @@
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E163">
         <v>41.188000000000002</v>
@@ -8950,7 +5165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
@@ -8958,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>32.226999999999997</v>
@@ -8979,7 +5194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6</v>
       </c>
@@ -8987,7 +5202,7 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E165">
         <v>32.226999999999997</v>
@@ -9008,7 +5223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6</v>
       </c>
@@ -9016,7 +5231,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166">
         <v>30.59</v>
@@ -9037,7 +5252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6</v>
       </c>
@@ -9045,7 +5260,7 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E167">
         <v>30.59</v>
@@ -9066,7 +5281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6</v>
       </c>
@@ -9074,7 +5289,7 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E168">
         <v>35.975000000000001</v>
@@ -9095,7 +5310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -9103,7 +5318,7 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E169">
         <v>35.975000000000001</v>
@@ -9124,7 +5339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6</v>
       </c>
@@ -9132,7 +5347,7 @@
         <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E170">
         <v>34.639000000000003</v>
@@ -9153,7 +5368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6</v>
       </c>
@@ -9161,7 +5376,7 @@
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171">
         <v>34.639000000000003</v>
@@ -9182,7 +5397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6</v>
       </c>
@@ -9190,7 +5405,7 @@
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E172">
         <v>31.795999999999999</v>
@@ -9211,7 +5426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6</v>
       </c>
@@ -9219,7 +5434,7 @@
         <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173">
         <v>31.795999999999999</v>
@@ -9240,7 +5455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6</v>
       </c>
@@ -9248,7 +5463,7 @@
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E174">
         <v>30.331</v>
@@ -9269,7 +5484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6</v>
       </c>
@@ -9277,7 +5492,7 @@
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175">
         <v>30.331</v>
@@ -9298,7 +5513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6</v>
       </c>
@@ -9306,7 +5521,7 @@
         <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E176">
         <v>41.963999999999999</v>
@@ -9327,7 +5542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6</v>
       </c>
@@ -9335,7 +5550,7 @@
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E177">
         <v>41.963999999999999</v>
@@ -9356,7 +5571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6</v>
       </c>
@@ -9364,7 +5579,7 @@
         <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E178">
         <v>33.906999999999996</v>
@@ -9385,7 +5600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6</v>
       </c>
@@ -9393,7 +5608,7 @@
         <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E179">
         <v>33.906999999999996</v>
@@ -9414,7 +5629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>6</v>
       </c>
@@ -9422,7 +5637,7 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E180">
         <v>42.868000000000002</v>
@@ -9443,7 +5658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6</v>
       </c>
@@ -9451,7 +5666,7 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E181">
         <v>42.868000000000002</v>
@@ -9472,7 +5687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7</v>
       </c>
@@ -9480,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E182">
         <v>54.975000000000001</v>
@@ -9501,7 +5716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>7</v>
       </c>
@@ -9509,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183">
         <v>54.975000000000001</v>
@@ -9530,7 +5745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7</v>
       </c>
@@ -9538,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E184">
         <v>52.433</v>
@@ -9559,7 +5774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>7</v>
       </c>
@@ -9567,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E185">
         <v>52.433</v>
@@ -9588,7 +5803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>7</v>
       </c>
@@ -9596,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186">
         <v>41.963999999999999</v>
@@ -9617,7 +5832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>7</v>
       </c>
@@ -9625,7 +5840,7 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E187">
         <v>41.963999999999999</v>
@@ -9646,7 +5861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7</v>
       </c>
@@ -9654,7 +5869,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E188">
         <v>46.143000000000001</v>
@@ -9675,7 +5890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>7</v>
       </c>
@@ -9683,7 +5898,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E189">
         <v>46.143000000000001</v>
@@ -9704,7 +5919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>7</v>
       </c>
@@ -9712,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>36.363</v>
@@ -9733,7 +5948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>7</v>
       </c>
@@ -9741,7 +5956,7 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191">
         <v>36.363</v>
@@ -9762,7 +5977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7</v>
       </c>
@@ -9770,7 +5985,7 @@
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E192">
         <v>30.675999999999998</v>
@@ -9791,7 +6006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7</v>
       </c>
@@ -9799,7 +6014,7 @@
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193">
         <v>30.675999999999998</v>
@@ -9820,7 +6035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7</v>
       </c>
@@ -9828,7 +6043,7 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E194">
         <v>30.934000000000001</v>
@@ -9849,7 +6064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -9857,7 +6072,7 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195">
         <v>30.934000000000001</v>
@@ -9878,7 +6093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>7</v>
       </c>
@@ -9886,7 +6101,7 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E196">
         <v>43.127000000000002</v>
@@ -9907,7 +6122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7</v>
       </c>
@@ -9915,7 +6130,7 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197">
         <v>43.127000000000002</v>
@@ -9936,7 +6151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>7</v>
       </c>
@@ -9944,7 +6159,7 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E198">
         <v>42.781999999999996</v>
@@ -9965,7 +6180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>7</v>
       </c>
@@ -9973,7 +6188,7 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E199">
         <v>42.781999999999996</v>
@@ -9994,7 +6209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7</v>
       </c>
@@ -10002,7 +6217,7 @@
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>40.972999999999999</v>
@@ -10023,7 +6238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7</v>
       </c>
@@ -10031,7 +6246,7 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201">
         <v>40.972999999999999</v>
@@ -10052,7 +6267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7</v>
       </c>
@@ -10060,7 +6275,7 @@
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E202">
         <v>43.040999999999997</v>
@@ -10081,7 +6296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7</v>
       </c>
@@ -10089,7 +6304,7 @@
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203">
         <v>43.040999999999997</v>
@@ -10110,7 +6325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7</v>
       </c>
@@ -10118,7 +6333,7 @@
         <v>12</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E204">
         <v>54.716000000000001</v>
@@ -10139,7 +6354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7</v>
       </c>
@@ -10147,7 +6362,7 @@
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E205">
         <v>54.716000000000001</v>
@@ -10168,7 +6383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7</v>
       </c>
@@ -10176,7 +6391,7 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E206">
         <v>57.646000000000001</v>
@@ -10197,7 +6412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7</v>
       </c>
@@ -10205,7 +6420,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E207">
         <v>57.646000000000001</v>
@@ -10226,7 +6441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7</v>
       </c>
@@ -10234,7 +6449,7 @@
         <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E208">
         <v>49.933999999999997</v>
@@ -10255,7 +6470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7</v>
       </c>
@@ -10263,7 +6478,7 @@
         <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E209">
         <v>49.933999999999997</v>
@@ -10284,7 +6499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7</v>
       </c>
@@ -10292,7 +6507,7 @@
         <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E210">
         <v>62.600999999999999</v>
@@ -10313,7 +6528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7</v>
       </c>
@@ -10321,7 +6536,7 @@
         <v>15</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E211">
         <v>62.600999999999999</v>
@@ -10342,7 +6557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>8</v>
       </c>
@@ -10350,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E212">
         <v>56.569000000000003</v>
@@ -10371,7 +6586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>8</v>
       </c>
@@ -10379,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E213">
         <v>56.569000000000003</v>
@@ -10400,7 +6615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>8</v>
       </c>
@@ -10408,7 +6623,7 @@
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E214">
         <v>58.378999999999998</v>
@@ -10429,7 +6644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>8</v>
       </c>
@@ -10437,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E215">
         <v>58.378999999999998</v>
@@ -10458,7 +6673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>8</v>
       </c>
@@ -10466,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E216">
         <v>55.707000000000001</v>
@@ -10487,7 +6702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>8</v>
       </c>
@@ -10495,7 +6710,7 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E217">
         <v>55.707000000000001</v>
@@ -10516,7 +6731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>8</v>
       </c>
@@ -10524,7 +6739,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E218">
         <v>53.984000000000002</v>
@@ -10545,7 +6760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8</v>
       </c>
@@ -10553,7 +6768,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E219">
         <v>53.984000000000002</v>
@@ -10574,7 +6789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>8</v>
       </c>
@@ -10582,7 +6797,7 @@
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E220">
         <v>26.97</v>
@@ -10603,7 +6818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>8</v>
       </c>
@@ -10611,7 +6826,7 @@
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E221">
         <v>26.97</v>
@@ -10632,7 +6847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>8</v>
       </c>
@@ -10640,7 +6855,7 @@
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E222">
         <v>27.702999999999999</v>
@@ -10661,7 +6876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>8</v>
       </c>
@@ -10669,7 +6884,7 @@
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E223">
         <v>27.702999999999999</v>
@@ -10690,7 +6905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>8</v>
       </c>
@@ -10698,7 +6913,7 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E224">
         <v>26.280999999999999</v>
@@ -10719,7 +6934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8</v>
       </c>
@@ -10727,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E225">
         <v>26.280999999999999</v>
@@ -10748,7 +6963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8</v>
       </c>
@@ -10756,7 +6971,7 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E226">
         <v>31.451000000000001</v>
@@ -10777,7 +6992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>8</v>
       </c>
@@ -10785,7 +7000,7 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E227">
         <v>31.451000000000001</v>
@@ -10806,7 +7021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>8</v>
       </c>
@@ -10814,7 +7029,7 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E228">
         <v>30.675999999999998</v>
@@ -10835,7 +7050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>8</v>
       </c>
@@ -10843,7 +7058,7 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E229">
         <v>30.675999999999998</v>
@@ -10864,7 +7079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>8</v>
       </c>
@@ -10872,7 +7087,7 @@
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230">
         <v>29.684999999999999</v>
@@ -10893,7 +7108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8</v>
       </c>
@@ -10901,7 +7116,7 @@
         <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E231">
         <v>29.684999999999999</v>
@@ -10922,7 +7137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>8</v>
       </c>
@@ -10930,7 +7145,7 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E232">
         <v>30.331</v>
@@ -10951,7 +7166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>8</v>
       </c>
@@ -10959,7 +7174,7 @@
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E233">
         <v>30.331</v>
@@ -10980,7 +7195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8</v>
       </c>
@@ -10988,7 +7203,7 @@
         <v>12</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E234">
         <v>34.036000000000001</v>
@@ -11009,7 +7224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8</v>
       </c>
@@ -11017,7 +7232,7 @@
         <v>12</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E235">
         <v>34.036000000000001</v>
@@ -11038,7 +7253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8</v>
       </c>
@@ -11046,7 +7261,7 @@
         <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E236">
         <v>31.838999999999999</v>
@@ -11067,7 +7282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8</v>
       </c>
@@ -11075,7 +7290,7 @@
         <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E237">
         <v>31.838999999999999</v>
@@ -11096,7 +7311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8</v>
       </c>
@@ -11104,7 +7319,7 @@
         <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E238">
         <v>34.423999999999999</v>
@@ -11125,7 +7340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>8</v>
       </c>
@@ -11133,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E239">
         <v>34.423999999999999</v>
@@ -11154,7 +7369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8</v>
       </c>
@@ -11162,7 +7377,7 @@
         <v>15</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E240">
         <v>40.456000000000003</v>
@@ -11183,7 +7398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8</v>
       </c>
@@ -11191,7 +7406,7 @@
         <v>15</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E241">
         <v>40.456000000000003</v>
@@ -11215,16 +7430,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6508DE08-E875-2D4C-8783-46A9BA4DC42A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>